--- a/05-Test/oc-5 test suite.xlsx
+++ b/05-Test/oc-5 test suite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>test suite pte calculator oc-5</t>
   </si>
@@ -32,25 +32,46 @@
     <t>tau (Ft/areal) = 102,0408, delta 0,00499999, erUnormalStor=true</t>
   </si>
   <si>
-    <t>areal 500, enhed cm², Ft 50000</t>
+    <t>areal 50000, enhed mm², Ft 50000</t>
   </si>
   <si>
     <t>tau (Ft/areal) = 1, erUnormalStor=false</t>
   </si>
   <si>
-    <t>areal 1, enhed m², Ft 50000</t>
-  </si>
-  <si>
-    <t>tau (Ft/areal) = 0,05, delta 0,00499999, erUnormalStor=false</t>
-  </si>
-  <si>
-    <t>areal 0, enhed mm², Ft 5000</t>
-  </si>
-  <si>
-    <t>UgyldigForskydningsspændingsException</t>
-  </si>
-  <si>
-    <t>areal -1, enhed mm², Ft 5000</t>
+    <t>areal null</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Ft null</t>
+  </si>
+  <si>
+    <t>areal 490, enhed mm²</t>
+  </si>
+  <si>
+    <t>Areal 490 mm²</t>
+  </si>
+  <si>
+    <t>areal 500, enhed cm²</t>
+  </si>
+  <si>
+    <t>areal 50000mm²</t>
+  </si>
+  <si>
+    <t>areal 1, enhed m²</t>
+  </si>
+  <si>
+    <t>areal 1000000mm²</t>
+  </si>
+  <si>
+    <t>areal 0, enhed mm²</t>
+  </si>
+  <si>
+    <t>UgyldigArealException</t>
+  </si>
+  <si>
+    <t>areal -1, enhed mm²</t>
   </si>
 </sst>
 </file>
@@ -60,11 +81,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -83,14 +105,22 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,8 +189,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -180,10 +214,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:13"/>
+  <dimension ref="1:18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1257,41 +1291,62 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
